--- a/tests/data/Photoautotrophic conditions.xlsx
+++ b/tests/data/Photoautotrophic conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Desktop\DielModels\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88050A5C-8F52-4367-AD68-3064BA5903C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10AF932-2F94-480F-918D-2B498A2DC3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{311CADA3-E4D7-42B6-AABC-34EAFD171590}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{311CADA3-E4D7-42B6-AABC-34EAFD171590}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -105,37 +105,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -154,79 +130,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,7 +194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -391,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,212 +452,210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E18914-2730-467E-9A4E-B74039A5048C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="1" max="1" width="44.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>-1000000</v>
       </c>
-      <c r="C11" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="C11">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>-1000000</v>
       </c>
-      <c r="C12" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="C12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>1000000</v>
       </c>
     </row>
